--- a/test_predictions.xlsx
+++ b/test_predictions.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -446,1008 +450,1008 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>293</v>
+      <c r="A2" s="2" t="n">
+        <v>40695</v>
       </c>
       <c r="B2" t="n">
         <v>-15.69976786626977</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>294</v>
+      <c r="A3" s="2" t="n">
+        <v>40725</v>
       </c>
       <c r="B3" t="n">
         <v>-163.3668178604512</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>295</v>
+      <c r="A4" s="2" t="n">
+        <v>40756</v>
       </c>
       <c r="B4" t="n">
         <v>-168.8368051887484</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>296</v>
+      <c r="A5" s="2" t="n">
+        <v>40787</v>
       </c>
       <c r="B5" t="n">
         <v>-145.2861537634576</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>297</v>
+      <c r="A6" s="2" t="n">
+        <v>40817</v>
       </c>
       <c r="B6" t="n">
         <v>-218.0602806872641</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>298</v>
+      <c r="A7" s="2" t="n">
+        <v>40848</v>
       </c>
       <c r="B7" t="n">
         <v>-254.0755378128943</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>299</v>
+      <c r="A8" s="2" t="n">
+        <v>40878</v>
       </c>
       <c r="B8" t="n">
         <v>-292.9707051138503</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>300</v>
+      <c r="A9" s="2" t="n">
+        <v>40909</v>
       </c>
       <c r="B9" t="n">
         <v>-289.7314974481093</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>301</v>
+      <c r="A10" s="2" t="n">
+        <v>40940</v>
       </c>
       <c r="B10" t="n">
         <v>-269.7495713221816</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>302</v>
+      <c r="A11" s="2" t="n">
+        <v>40969</v>
       </c>
       <c r="B11" t="n">
         <v>-265.7929675377591</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>303</v>
+      <c r="A12" s="2" t="n">
+        <v>41000</v>
       </c>
       <c r="B12" t="n">
         <v>-263.2654075264475</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>304</v>
+      <c r="A13" s="2" t="n">
+        <v>41030</v>
       </c>
       <c r="B13" t="n">
         <v>-273.0118186722706</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>305</v>
+      <c r="A14" s="2" t="n">
+        <v>41061</v>
       </c>
       <c r="B14" t="n">
         <v>-292.7718043749357</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>306</v>
+      <c r="A15" s="2" t="n">
+        <v>41091</v>
       </c>
       <c r="B15" t="n">
         <v>-287.003699093837</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v>307</v>
+      <c r="A16" s="2" t="n">
+        <v>41122</v>
       </c>
       <c r="B16" t="n">
         <v>-282.0078273101368</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
-        <v>308</v>
+      <c r="A17" s="2" t="n">
+        <v>41153</v>
       </c>
       <c r="B17" t="n">
         <v>-284.8423874730792</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
-        <v>309</v>
+      <c r="A18" s="2" t="n">
+        <v>41183</v>
       </c>
       <c r="B18" t="n">
         <v>-234.3315917427317</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
-        <v>310</v>
+      <c r="A19" s="2" t="n">
+        <v>41214</v>
       </c>
       <c r="B19" t="n">
         <v>-235.2535258371128</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
-        <v>311</v>
+      <c r="A20" s="2" t="n">
+        <v>41244</v>
       </c>
       <c r="B20" t="n">
         <v>2.047114651055153</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
-        <v>312</v>
+      <c r="A21" s="2" t="n">
+        <v>41275</v>
       </c>
       <c r="B21" t="n">
         <v>163.6688496831377</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
-        <v>313</v>
+      <c r="A22" s="2" t="n">
+        <v>41306</v>
       </c>
       <c r="B22" t="n">
         <v>133.8731018455466</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
-        <v>314</v>
+      <c r="A23" s="2" t="n">
+        <v>41334</v>
       </c>
       <c r="B23" t="n">
         <v>141.8261262213956</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
-        <v>315</v>
+      <c r="A24" s="2" t="n">
+        <v>41365</v>
       </c>
       <c r="B24" t="n">
         <v>134.5438550978123</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
-        <v>316</v>
+      <c r="A25" s="2" t="n">
+        <v>41395</v>
       </c>
       <c r="B25" t="n">
         <v>137.8196969910979</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
-        <v>317</v>
+      <c r="A26" s="2" t="n">
+        <v>41426</v>
       </c>
       <c r="B26" t="n">
         <v>149.3303100556532</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
-        <v>318</v>
+      <c r="A27" s="2" t="n">
+        <v>41456</v>
       </c>
       <c r="B27" t="n">
         <v>157.9772113437273</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
-        <v>319</v>
+      <c r="A28" s="2" t="n">
+        <v>41487</v>
       </c>
       <c r="B28" t="n">
         <v>119.8443577807408</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
-        <v>320</v>
+      <c r="A29" s="2" t="n">
+        <v>41518</v>
       </c>
       <c r="B29" t="n">
         <v>117.5328319984187</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
-        <v>321</v>
+      <c r="A30" s="2" t="n">
+        <v>41548</v>
       </c>
       <c r="B30" t="n">
         <v>114.2787821030184</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
-        <v>322</v>
+      <c r="A31" s="2" t="n">
+        <v>41579</v>
       </c>
       <c r="B31" t="n">
         <v>47.0920112202059</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
-        <v>323</v>
+      <c r="A32" s="2" t="n">
+        <v>41609</v>
       </c>
       <c r="B32" t="n">
         <v>68.87540351941334</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
-        <v>324</v>
+      <c r="A33" s="2" t="n">
+        <v>41640</v>
       </c>
       <c r="B33" t="n">
         <v>49.00706026861529</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="n">
-        <v>325</v>
+      <c r="A34" s="2" t="n">
+        <v>41671</v>
       </c>
       <c r="B34" t="n">
         <v>95.45085598761906</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="n">
-        <v>326</v>
+      <c r="A35" s="2" t="n">
+        <v>41699</v>
       </c>
       <c r="B35" t="n">
         <v>60.76695805738154</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n">
-        <v>327</v>
+      <c r="A36" s="2" t="n">
+        <v>41730</v>
       </c>
       <c r="B36" t="n">
         <v>38.35134077054276</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n">
-        <v>328</v>
+      <c r="A37" s="2" t="n">
+        <v>41760</v>
       </c>
       <c r="B37" t="n">
         <v>-112.2417524352331</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n">
-        <v>329</v>
+      <c r="A38" s="2" t="n">
+        <v>41791</v>
       </c>
       <c r="B38" t="n">
         <v>-336.5903216782172</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n">
-        <v>330</v>
+      <c r="A39" s="2" t="n">
+        <v>41821</v>
       </c>
       <c r="B39" t="n">
         <v>-274.3547544597654</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n">
-        <v>331</v>
+      <c r="A40" s="2" t="n">
+        <v>41852</v>
       </c>
       <c r="B40" t="n">
         <v>-318.7041600836249</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n">
-        <v>332</v>
+      <c r="A41" s="2" t="n">
+        <v>41883</v>
       </c>
       <c r="B41" t="n">
         <v>-347.0899456665521</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n">
-        <v>333</v>
+      <c r="A42" s="2" t="n">
+        <v>41913</v>
       </c>
       <c r="B42" t="n">
         <v>-352.269979401909</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
-        <v>334</v>
+      <c r="A43" s="2" t="n">
+        <v>41944</v>
       </c>
       <c r="B43" t="n">
         <v>-344.5167548327258</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="n">
-        <v>335</v>
+      <c r="A44" s="2" t="n">
+        <v>41974</v>
       </c>
       <c r="B44" t="n">
         <v>-338.9019795827572</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="n">
-        <v>336</v>
+      <c r="A45" s="2" t="n">
+        <v>42005</v>
       </c>
       <c r="B45" t="n">
         <v>-301.6992853149911</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n">
-        <v>337</v>
+      <c r="A46" s="2" t="n">
+        <v>42036</v>
       </c>
       <c r="B46" t="n">
         <v>-288.4032400000061</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="n">
-        <v>338</v>
+      <c r="A47" s="2" t="n">
+        <v>42064</v>
       </c>
       <c r="B47" t="n">
         <v>-265.4152509563993</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n">
-        <v>339</v>
+      <c r="A48" s="2" t="n">
+        <v>42095</v>
       </c>
       <c r="B48" t="n">
         <v>-267.6805836694389</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
-        <v>340</v>
+      <c r="A49" s="2" t="n">
+        <v>42125</v>
       </c>
       <c r="B49" t="n">
         <v>-165.7848221653897</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="n">
-        <v>341</v>
+      <c r="A50" s="2" t="n">
+        <v>42156</v>
       </c>
       <c r="B50" t="n">
         <v>132.6963254759168</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="n">
-        <v>342</v>
+      <c r="A51" s="2" t="n">
+        <v>42186</v>
       </c>
       <c r="B51" t="n">
         <v>134.2406631275834</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="n">
-        <v>343</v>
+      <c r="A52" s="2" t="n">
+        <v>42217</v>
       </c>
       <c r="B52" t="n">
         <v>152.1851944375341</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="n">
-        <v>344</v>
+      <c r="A53" s="2" t="n">
+        <v>42248</v>
       </c>
       <c r="B53" t="n">
         <v>164.5972011120412</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="n">
-        <v>345</v>
+      <c r="A54" s="2" t="n">
+        <v>42278</v>
       </c>
       <c r="B54" t="n">
         <v>180.187685869975</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="n">
-        <v>346</v>
+      <c r="A55" s="2" t="n">
+        <v>42309</v>
       </c>
       <c r="B55" t="n">
         <v>107.9190044266597</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="n">
-        <v>347</v>
+      <c r="A56" s="2" t="n">
+        <v>42339</v>
       </c>
       <c r="B56" t="n">
         <v>142.562292628588</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="n">
-        <v>348</v>
+      <c r="A57" s="2" t="n">
+        <v>42370</v>
       </c>
       <c r="B57" t="n">
         <v>84.9967272759353</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="n">
-        <v>349</v>
+      <c r="A58" s="2" t="n">
+        <v>42401</v>
       </c>
       <c r="B58" t="n">
         <v>87.65859188820311</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="n">
-        <v>350</v>
+      <c r="A59" s="2" t="n">
+        <v>42430</v>
       </c>
       <c r="B59" t="n">
         <v>102.4963339164743</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="n">
-        <v>351</v>
+      <c r="A60" s="2" t="n">
+        <v>42461</v>
       </c>
       <c r="B60" t="n">
         <v>77.05270511239544</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="n">
-        <v>352</v>
+      <c r="A61" s="2" t="n">
+        <v>42491</v>
       </c>
       <c r="B61" t="n">
         <v>52.49145330804121</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="n">
-        <v>353</v>
+      <c r="A62" s="2" t="n">
+        <v>42522</v>
       </c>
       <c r="B62" t="n">
         <v>74.33061836777904</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="n">
-        <v>354</v>
+      <c r="A63" s="2" t="n">
+        <v>42552</v>
       </c>
       <c r="B63" t="n">
         <v>48.74452748749965</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="n">
-        <v>355</v>
+      <c r="A64" s="2" t="n">
+        <v>42583</v>
       </c>
       <c r="B64" t="n">
         <v>58.01294359994759</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="n">
-        <v>356</v>
+      <c r="A65" s="2" t="n">
+        <v>42614</v>
       </c>
       <c r="B65" t="n">
         <v>117.9939878571776</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="n">
-        <v>357</v>
+      <c r="A66" s="2" t="n">
+        <v>42644</v>
       </c>
       <c r="B66" t="n">
         <v>95.26693040832103</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="n">
-        <v>358</v>
+      <c r="A67" s="2" t="n">
+        <v>42675</v>
       </c>
       <c r="B67" t="n">
         <v>106.2243379752849</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="n">
-        <v>359</v>
+      <c r="A68" s="2" t="n">
+        <v>42705</v>
       </c>
       <c r="B68" t="n">
         <v>128.927950661308</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="n">
-        <v>360</v>
+      <c r="A69" s="2" t="n">
+        <v>42736</v>
       </c>
       <c r="B69" t="n">
         <v>107.7326289514563</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="n">
-        <v>361</v>
+      <c r="A70" s="2" t="n">
+        <v>42767</v>
       </c>
       <c r="B70" t="n">
         <v>109.7103983736492</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="n">
-        <v>362</v>
+      <c r="A71" s="2" t="n">
+        <v>42795</v>
       </c>
       <c r="B71" t="n">
         <v>122.3723784053143</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="n">
-        <v>363</v>
+      <c r="A72" s="2" t="n">
+        <v>42826</v>
       </c>
       <c r="B72" t="n">
         <v>83.32946807584719</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="n">
-        <v>364</v>
+      <c r="A73" s="2" t="n">
+        <v>42856</v>
       </c>
       <c r="B73" t="n">
         <v>55.9696456365249</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="n">
-        <v>365</v>
+      <c r="A74" s="2" t="n">
+        <v>42887</v>
       </c>
       <c r="B74" t="n">
         <v>-206.0187887478897</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="n">
-        <v>366</v>
+      <c r="A75" s="2" t="n">
+        <v>42917</v>
       </c>
       <c r="B75" t="n">
         <v>-337.3479491949969</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="n">
-        <v>367</v>
+      <c r="A76" s="2" t="n">
+        <v>42948</v>
       </c>
       <c r="B76" t="n">
         <v>-300.0202369734378</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="n">
-        <v>368</v>
+      <c r="A77" s="2" t="n">
+        <v>42979</v>
       </c>
       <c r="B77" t="n">
         <v>-325.3554613578009</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="n">
-        <v>369</v>
+      <c r="A78" s="2" t="n">
+        <v>43009</v>
       </c>
       <c r="B78" t="n">
         <v>-349.9078941833543</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="n">
-        <v>370</v>
+      <c r="A79" s="2" t="n">
+        <v>43040</v>
       </c>
       <c r="B79" t="n">
         <v>-326.6067421477125</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="n">
-        <v>371</v>
+      <c r="A80" s="2" t="n">
+        <v>43070</v>
       </c>
       <c r="B80" t="n">
         <v>-292.2087299782589</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="n">
-        <v>372</v>
+      <c r="A81" s="2" t="n">
+        <v>43101</v>
       </c>
       <c r="B81" t="n">
         <v>-283.7582692946515</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="n">
-        <v>373</v>
+      <c r="A82" s="2" t="n">
+        <v>43132</v>
       </c>
       <c r="B82" t="n">
         <v>-283.2325272133044</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="n">
-        <v>374</v>
+      <c r="A83" s="2" t="n">
+        <v>43160</v>
       </c>
       <c r="B83" t="n">
         <v>-281.7490543052032</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="n">
-        <v>375</v>
+      <c r="A84" s="2" t="n">
+        <v>43191</v>
       </c>
       <c r="B84" t="n">
         <v>-277.93546966701</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="n">
-        <v>376</v>
+      <c r="A85" s="2" t="n">
+        <v>43221</v>
       </c>
       <c r="B85" t="n">
         <v>-266.2745284393046</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="n">
-        <v>377</v>
+      <c r="A86" s="2" t="n">
+        <v>43252</v>
       </c>
       <c r="B86" t="n">
         <v>-272.2893999647921</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="n">
-        <v>378</v>
+      <c r="A87" s="2" t="n">
+        <v>43282</v>
       </c>
       <c r="B87" t="n">
         <v>-301.9045960561325</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="n">
-        <v>379</v>
+      <c r="A88" s="2" t="n">
+        <v>43313</v>
       </c>
       <c r="B88" t="n">
         <v>-282.137827389653</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="n">
-        <v>380</v>
+      <c r="A89" s="2" t="n">
+        <v>43344</v>
       </c>
       <c r="B89" t="n">
         <v>48.54798685716483</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="n">
-        <v>381</v>
+      <c r="A90" s="2" t="n">
+        <v>43374</v>
       </c>
       <c r="B90" t="n">
         <v>140.8286082288935</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="n">
-        <v>382</v>
+      <c r="A91" s="2" t="n">
+        <v>43405</v>
       </c>
       <c r="B91" t="n">
         <v>149.9293921082243</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="n">
-        <v>383</v>
+      <c r="A92" s="2" t="n">
+        <v>43435</v>
       </c>
       <c r="B92" t="n">
         <v>188.3482738453485</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="n">
-        <v>384</v>
+      <c r="A93" s="2" t="n">
+        <v>43466</v>
       </c>
       <c r="B93" t="n">
         <v>207.0517682431042</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="n">
-        <v>385</v>
+      <c r="A94" s="2" t="n">
+        <v>43497</v>
       </c>
       <c r="B94" t="n">
         <v>167.7923233170952</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="n">
-        <v>386</v>
+      <c r="A95" s="2" t="n">
+        <v>43525</v>
       </c>
       <c r="B95" t="n">
         <v>73.8969074299669</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="n">
-        <v>387</v>
+      <c r="A96" s="2" t="n">
+        <v>43556</v>
       </c>
       <c r="B96" t="n">
         <v>211.4108113130493</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="n">
-        <v>388</v>
+      <c r="A97" s="2" t="n">
+        <v>43586</v>
       </c>
       <c r="B97" t="n">
         <v>141.1054867074244</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="n">
-        <v>389</v>
+      <c r="A98" s="2" t="n">
+        <v>43617</v>
       </c>
       <c r="B98" t="n">
         <v>148.6602214531346</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="n">
-        <v>390</v>
+      <c r="A99" s="2" t="n">
+        <v>43647</v>
       </c>
       <c r="B99" t="n">
         <v>87.33091417724462</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="n">
-        <v>391</v>
+      <c r="A100" s="2" t="n">
+        <v>43678</v>
       </c>
       <c r="B100" t="n">
         <v>96.60389522253105</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="n">
-        <v>392</v>
+      <c r="A101" s="2" t="n">
+        <v>43709</v>
       </c>
       <c r="B101" t="n">
         <v>41.46726733887323</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="n">
-        <v>393</v>
+      <c r="A102" s="2" t="n">
+        <v>43739</v>
       </c>
       <c r="B102" t="n">
         <v>59.70567378608577</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="n">
-        <v>394</v>
+      <c r="A103" s="2" t="n">
+        <v>43770</v>
       </c>
       <c r="B103" t="n">
         <v>-19.72978937784171</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="n">
-        <v>395</v>
+      <c r="A104" s="2" t="n">
+        <v>43800</v>
       </c>
       <c r="B104" t="n">
         <v>-86.37648807597748</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="n">
-        <v>396</v>
+      <c r="A105" s="2" t="n">
+        <v>43831</v>
       </c>
       <c r="B105" t="n">
         <v>-134.0569114746834</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="n">
-        <v>397</v>
+      <c r="A106" s="2" t="n">
+        <v>43862</v>
       </c>
       <c r="B106" t="n">
         <v>-86.54131566050243</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="n">
-        <v>398</v>
+      <c r="A107" s="2" t="n">
+        <v>43891</v>
       </c>
       <c r="B107" t="n">
         <v>-38.08376781963879</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="n">
-        <v>399</v>
+      <c r="A108" s="2" t="n">
+        <v>43922</v>
       </c>
       <c r="B108" t="n">
         <v>-17.35325235673493</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="n">
-        <v>400</v>
+      <c r="A109" s="2" t="n">
+        <v>43952</v>
       </c>
       <c r="B109" t="n">
         <v>-44.42374556698421</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="n">
-        <v>401</v>
+      <c r="A110" s="2" t="n">
+        <v>43983</v>
       </c>
       <c r="B110" t="n">
         <v>4.263724754538691</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="n">
-        <v>402</v>
+      <c r="A111" s="2" t="n">
+        <v>44013</v>
       </c>
       <c r="B111" t="n">
         <v>39.04876531103615</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="n">
-        <v>403</v>
+      <c r="A112" s="2" t="n">
+        <v>44044</v>
       </c>
       <c r="B112" t="n">
         <v>34.15377480116273</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="n">
-        <v>404</v>
+      <c r="A113" s="2" t="n">
+        <v>44075</v>
       </c>
       <c r="B113" t="n">
         <v>78.8359689584619</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="n">
-        <v>405</v>
+      <c r="A114" s="2" t="n">
+        <v>44105</v>
       </c>
       <c r="B114" t="n">
         <v>93.5025814722825</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="n">
-        <v>406</v>
+      <c r="A115" s="2" t="n">
+        <v>44136</v>
       </c>
       <c r="B115" t="n">
         <v>81.66502710666886</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="n">
-        <v>407</v>
+      <c r="A116" s="2" t="n">
+        <v>44166</v>
       </c>
       <c r="B116" t="n">
         <v>93.26254717545922</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="n">
-        <v>408</v>
+      <c r="A117" s="2" t="n">
+        <v>44197</v>
       </c>
       <c r="B117" t="n">
         <v>53.30605022206193</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="n">
-        <v>409</v>
+      <c r="A118" s="2" t="n">
+        <v>44228</v>
       </c>
       <c r="B118" t="n">
         <v>38.80635906849438</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="n">
-        <v>410</v>
+      <c r="A119" s="2" t="n">
+        <v>44256</v>
       </c>
       <c r="B119" t="n">
         <v>62.66805951234716</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="n">
-        <v>411</v>
+      <c r="A120" s="2" t="n">
+        <v>44287</v>
       </c>
       <c r="B120" t="n">
         <v>47.28519697531684</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="n">
-        <v>412</v>
+      <c r="A121" s="2" t="n">
+        <v>44317</v>
       </c>
       <c r="B121" t="n">
         <v>-112.5178038137685</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="n">
-        <v>413</v>
+      <c r="A122" s="2" t="n">
+        <v>44348</v>
       </c>
       <c r="B122" t="n">
         <v>-226.5916895272721</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="n">
-        <v>414</v>
+      <c r="A123" s="2" t="n">
+        <v>44378</v>
       </c>
       <c r="B123" t="n">
         <v>-282.544298193997</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="n">
-        <v>415</v>
+      <c r="A124" s="2" t="n">
+        <v>44409</v>
       </c>
       <c r="B124" t="n">
         <v>-296.3917702390298</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="n">
-        <v>416</v>
+      <c r="A125" s="2" t="n">
+        <v>44440</v>
       </c>
       <c r="B125" t="n">
         <v>-312.8097144959159</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="n">
-        <v>417</v>
+      <c r="A126" s="2" t="n">
+        <v>44470</v>
       </c>
       <c r="B126" t="n">
         <v>-320.8374021087781</v>
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="n">
-        <v>418</v>
+      <c r="A127" s="2" t="n">
+        <v>44501</v>
       </c>
       <c r="B127" t="n">
         <v>-318.7317589249676</v>
